--- a/DateBase/orders/Nha Thu_2025-11-26.xlsx
+++ b/DateBase/orders/Nha Thu_2025-11-26.xlsx
@@ -635,7 +635,7 @@
     </row>
     <row r="24">
       <c r="C24" t="str">
-        <v>824_剑兰阿蒂娜_undefined_undefined_1bunch</v>
+        <v>823_剑兰阿贾克斯_undefined_undefined_1bunch</v>
       </c>
       <c r="F24" t="str">
         <v>5</v>
@@ -643,27 +643,27 @@
     </row>
     <row r="25">
       <c r="C25" t="str">
-        <v>823_剑兰阿贾克斯_undefined_undefined_1bunch</v>
+        <v>824_剑兰阿蒂娜_undefined_undefined_1bunch</v>
       </c>
       <c r="F25" t="str">
         <v>5</v>
       </c>
     </row>
-    <row r="26" xml:space="preserve">
-      <c r="C26" t="str" xml:space="preserve">
+    <row r="26">
+      <c r="C26" t="str">
+        <v>320_雪柳花_Spiraea flower white_undefined_1bunch</v>
+      </c>
+      <c r="F26" t="str">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" xml:space="preserve">
+      <c r="C27" t="str" xml:space="preserve">
         <v xml:space="preserve">542_吊米 红_hanging amaranthus
 red_undefined_1bunch</v>
       </c>
-      <c r="F26" t="str">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="C27" t="str">
-        <v>320_雪柳花_Spiraea flower white_undefined_1bunch</v>
-      </c>
       <c r="F27" t="str">
-        <v>30</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -726,7 +726,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>021658151120211055555101020108651055530</v>
+        <v>021658151120211055555101020108651055305</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2025-11-26.xlsx
+++ b/DateBase/orders/Nha Thu_2025-11-26.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L27"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -446,229 +446,87 @@
         <v>1</v>
       </c>
       <c r="C2" t="str">
-        <v>189_洛神_Mandala_Rosa rugosa Thunb._20stems</v>
+        <v>208_紫霞仙子 _Nightingale_Rosa rugosa Thunb._20stems</v>
       </c>
       <c r="F2" t="str">
-        <v>21</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
       <c r="C3" t="str">
-        <v>175_火灵鸟_Free Spirit_Rosa rugosa Thunb._20stems</v>
+        <v>135_甜蜜曼塔_sweet menta_Rosa rugosa Thunb._20stems</v>
       </c>
       <c r="F3" t="str">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4">
       <c r="C4" t="str">
-        <v>177_国王日_Kings Day_Rosa rugosa Thunb._20stems</v>
+        <v>148_坦尼克_Tineke_Rosa rugosa Thunb._20stems</v>
       </c>
       <c r="F4" t="str">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="str">
-        <v>2</v>
-      </c>
       <c r="C5" t="str">
-        <v>263_乡村阳光_undefined_Rosa rugosa Thunb._20stems</v>
+        <v>3_波浪白洋桔梗_Wavy White Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
       </c>
       <c r="F5" t="str">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
       <c r="C6" t="str">
-        <v>192_粉荔枝_Pink Ohara_Rosa rugosa Thunb._20stems</v>
+        <v>1_白洋桔梗_White Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
       </c>
       <c r="F6" t="str">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
+      <c r="A7" t="str">
+        <v>2</v>
+      </c>
       <c r="C7" t="str">
-        <v>279_完美甜蜜_undefined_Rosa rugosa Thunb._10stems</v>
+        <v>327_文竹_asparagus fern_undefined_1bunch</v>
       </c>
       <c r="F7" t="str">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
       <c r="C8" t="str">
-        <v>344_钢草_steal grass_Xanthorrhoea preissii Endl._1bunch</v>
+        <v>214_气场_Glamorous_Rosa rugosa Thunb._20stems</v>
       </c>
       <c r="F8" t="str">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
       <c r="C9" t="str">
-        <v>9_茶色洋桔梗_Tea Color Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+        <v>148_坦尼克_Tineke_Rosa rugosa Thunb._20stems</v>
       </c>
       <c r="F9" t="str">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="str">
-        <v>3</v>
-      </c>
       <c r="C10" t="str">
-        <v>797_维也纳大菊_undefined_undefined_5stems</v>
+        <v>1_白洋桔梗_White Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
       </c>
       <c r="F10" t="str">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11">
       <c r="C11" t="str">
-        <v>798_朱玉大菊_undefined_undefined_5stems</v>
-      </c>
-      <c r="F11" t="str">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="C12" t="str">
-        <v>651_大丽花 奶油桃子_undefined_undefined_5stems</v>
-      </c>
-      <c r="F12" t="str">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="C13" t="str">
-        <v>667_大丽花 安吉丽娜_undefined_undefined_5stems</v>
-      </c>
-      <c r="F13" t="str">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="str">
-        <v>4</v>
-      </c>
-      <c r="C14" t="str">
-        <v>797_维也纳大菊_undefined_undefined_5stems</v>
-      </c>
-      <c r="F14" t="str">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="C15" t="str">
-        <v>780_贝壳草_undefined_undefined_1bunch</v>
-      </c>
-      <c r="F15" t="str">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="C16" t="str">
-        <v>550_蕾丝红色_lace flower brown_undefined_1bunch</v>
-      </c>
-      <c r="F16" t="str">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="C17" t="str">
-        <v>325_小盼草_Northern Sea Oats_undefined_1bunch</v>
-      </c>
-      <c r="F17" t="str">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="C18" t="str">
-        <v>322_喷泉草_Grasses Panicum_undefined_1bunch</v>
-      </c>
-      <c r="F18" t="str">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="C19" t="str">
-        <v>755_豌豆花粉_undefined_undefined_1bunch</v>
-      </c>
-      <c r="F19" t="str">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="C20" t="str">
-        <v>828_豌豆花浅紫_undefined_undefined_1bunch</v>
-      </c>
-      <c r="F20" t="str">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="C21" t="str">
-        <v>827_豌豆花白_undefined_undefined_1bunch</v>
-      </c>
-      <c r="F21" t="str">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" xml:space="preserve">
-      <c r="C22" t="str" xml:space="preserve">
-        <v xml:space="preserve">448_吊米 绿_hanging amaranthus
-green_undefined_1bunch</v>
-      </c>
-      <c r="F22" t="str">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="str">
-        <v>7</v>
-      </c>
-      <c r="C23" t="str">
-        <v>821_剑兰白_undefined_undefined_1bunch</v>
-      </c>
-      <c r="F23" t="str">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="C24" t="str">
-        <v>823_剑兰阿贾克斯_undefined_undefined_1bunch</v>
-      </c>
-      <c r="F24" t="str">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="C25" t="str">
-        <v>824_剑兰阿蒂娜_undefined_undefined_1bunch</v>
-      </c>
-      <c r="F25" t="str">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="C26" t="str">
-        <v>320_雪柳花_Spiraea flower white_undefined_1bunch</v>
-      </c>
-      <c r="F26" t="str">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="27" xml:space="preserve">
-      <c r="C27" t="str" xml:space="preserve">
-        <v xml:space="preserve">542_吊米 红_hanging amaranthus
-red_undefined_1bunch</v>
-      </c>
-      <c r="F27" t="str">
-        <v>5</v>
+        <v>277_草莓杏仁饼_undefined_Rosa rugosa Thunb._10stems</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L27"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L11"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -726,7 +584,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>021658151120211055555101020108651055305</v>
+        <v>06131771010101350</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2025-11-26.xlsx
+++ b/DateBase/orders/Nha Thu_2025-11-26.xlsx
@@ -523,6 +523,9 @@
       <c r="C11" t="str">
         <v>277_草莓杏仁饼_undefined_Rosa rugosa Thunb._10stems</v>
       </c>
+      <c r="F11" t="str">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -584,7 +587,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>06131771010101350</v>
+        <v>06131771010101351</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2025-11-26.xlsx
+++ b/DateBase/orders/Nha Thu_2025-11-26.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -524,12 +524,20 @@
         <v>277_草莓杏仁饼_undefined_Rosa rugosa Thunb._10stems</v>
       </c>
       <c r="F11" t="str">
-        <v>1</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="C12" t="str">
+        <v>12_肉粉洋桔梗_Peach Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F12" t="str">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L11"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L12"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -587,7 +595,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>06131771010101351</v>
+        <v>06131771010101351015</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2025-11-26.xlsx
+++ b/DateBase/orders/Nha Thu_2025-11-26.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -535,9 +535,76 @@
         <v>15</v>
       </c>
     </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>3</v>
+      </c>
+      <c r="C13" t="str">
+        <v>462_五针松_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F13" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="C14" t="str">
+        <v>328_卢荀草_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F14" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="C15" t="str">
+        <v>411_紫罗兰白_violet white_undefined_1bunch</v>
+      </c>
+      <c r="F15" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="C16" t="str">
+        <v>506_紫罗兰香槟色_violet champagne_undefined_1bunch</v>
+      </c>
+      <c r="F16" t="str">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="C17" t="str">
+        <v>412_紫罗兰粉_violet pink_undefined_1bunch</v>
+      </c>
+      <c r="F17" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="C18" t="str">
+        <v>505_紫罗兰紫_violet purple_undefined_1bunch</v>
+      </c>
+      <c r="F18" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="C19" t="str">
+        <v>591_洋牡丹黑_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F19" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="C20" t="str">
+        <v>771_美洲茶_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F20" t="str">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L12"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L20"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -595,7 +662,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>06131771010101351015</v>
+        <v>061317710101013510151515201215101015</v>
       </c>
     </row>
   </sheetData>
